--- a/LSB/ABALLA, JAMAICA CORTEZ.xlsx
+++ b/LSB/ABALLA, JAMAICA CORTEZ.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,7 +201,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -425,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2595,7 +2606,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2973,12 +2984,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5655" topLeftCell="A28" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,8 +3265,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="42">
+        <v>45027</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="41"/>
       <c r="E14" s="10"/>
@@ -3266,12 +3281,20 @@
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="51">
+        <v>45014</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="64">
+        <v>45045</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="41"/>
       <c r="E15" s="10"/>
@@ -3282,40 +3305,44 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="51">
+        <v>45029</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="45"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="41"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="41"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="45"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -5110,20 +5137,36 @@
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="45"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="41"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="45"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="41"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="45"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
